--- a/tabular/eve/epv-dependo-ncbi-curated.xlsx
+++ b/tabular/eve/epv-dependo-ncbi-curated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/AAV-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA8DFF0-8255-8C4E-8A1B-F9A62097F050}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C8C1B8-8EE2-4D45-98A1-F1F5BEFECA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1060" windowWidth="27640" windowHeight="16940" xr2:uid="{8B9AD57D-8CCD-1646-8BC8-E3C5CE85EAE5}"/>
   </bookViews>
@@ -599,7 +599,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +630,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -643,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -660,6 +666,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,1682 +989,1787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0410F6A4-3F00-D045-878D-0160B611B1BA}">
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="A1:J52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="25.5" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" t="s">
         <v>112</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>113</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>114</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
         <v>112</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>113</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>116</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
         <v>112</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>113</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>116</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" t="s">
         <v>112</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>113</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>114</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" t="s">
         <v>112</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>113</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>114</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>113</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>116</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" t="s">
         <v>112</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>113</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>116</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
         <v>112</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>113</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>116</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" t="s">
-        <v>111</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" t="s">
         <v>112</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>113</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" t="s">
         <v>112</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>113</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>116</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" t="s">
         <v>112</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>113</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" t="s">
         <v>112</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>113</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
         <v>112</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>113</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>116</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+      <c r="I15" t="s">
         <v>112</v>
       </c>
-      <c r="H15" t="s">
+      <c r="J15" t="s">
         <v>113</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>116</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
         <v>112</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>113</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>114</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
         <v>112</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>113</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>114</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="4">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" t="s">
         <v>112</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>113</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>116</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" t="s">
-        <v>111</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" t="s">
         <v>112</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>113</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>116</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="G20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F20" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" t="s">
         <v>112</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>127</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>128</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="G21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F21" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
+        <v>111</v>
+      </c>
+      <c r="I21" t="s">
         <v>112</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>113</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>130</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="G22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I22" t="s">
         <v>112</v>
       </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
         <v>113</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>132</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s">
         <v>76</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F23" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
+        <v>111</v>
+      </c>
+      <c r="I23" t="s">
         <v>112</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>113</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>134</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F24" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
         <v>112</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>113</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>136</v>
       </c>
-      <c r="J24" t="s">
+      <c r="L24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F25" t="s">
-        <v>111</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>111</v>
+      </c>
+      <c r="I25" t="s">
         <v>112</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>113</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>138</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="F26" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
+        <v>111</v>
+      </c>
+      <c r="I26" t="s">
         <v>112</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>113</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>138</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" t="s">
-        <v>111</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I27" t="s">
         <v>141</v>
       </c>
-      <c r="H27" t="s">
+      <c r="J27" t="s">
         <v>142</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>143</v>
       </c>
-      <c r="J27" t="s">
+      <c r="L27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="4">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" t="s">
         <v>141</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>142</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>145</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" t="s">
         <v>141</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>142</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>145</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="4">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>111</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I30" t="s">
         <v>141</v>
       </c>
-      <c r="H30" t="s">
+      <c r="J30" t="s">
         <v>142</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>147</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" s="4">
         <v>1</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>111</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" t="s">
+        <v>111</v>
+      </c>
+      <c r="I31" t="s">
         <v>141</v>
       </c>
-      <c r="H31" t="s">
+      <c r="J31" t="s">
         <v>142</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>149</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="4">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" t="s">
-        <v>111</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H32" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" t="s">
         <v>141</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>142</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>149</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="4">
         <v>1</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" t="s">
-        <v>111</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s">
+        <v>111</v>
+      </c>
+      <c r="I33" t="s">
         <v>141</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
         <v>142</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>151</v>
       </c>
-      <c r="J33" t="s">
+      <c r="L33" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" t="s">
         <v>141</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
         <v>142</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>149</v>
       </c>
-      <c r="J34" t="s">
+      <c r="L34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s">
         <v>88</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" t="s">
-        <v>111</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s">
+        <v>111</v>
+      </c>
+      <c r="I35" t="s">
         <v>141</v>
       </c>
-      <c r="H35" t="s">
+      <c r="J35" t="s">
         <v>142</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>149</v>
       </c>
-      <c r="J35" t="s">
+      <c r="L35" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" t="s">
         <v>141</v>
       </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>142</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>145</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I37" t="s">
         <v>141</v>
       </c>
-      <c r="H37" t="s">
+      <c r="J37" t="s">
         <v>142</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>156</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s">
         <v>91</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s">
+        <v>111</v>
+      </c>
+      <c r="I38" t="s">
         <v>141</v>
       </c>
-      <c r="H38" t="s">
+      <c r="J38" t="s">
         <v>142</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>149</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s">
         <v>92</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>111</v>
+      </c>
+      <c r="I39" t="s">
         <v>141</v>
       </c>
-      <c r="H39" t="s">
+      <c r="J39" t="s">
         <v>142</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>159</v>
       </c>
-      <c r="J39" t="s">
+      <c r="L39" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="4">
         <v>1</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s">
         <v>93</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
         <v>141</v>
       </c>
-      <c r="H40" t="s">
+      <c r="J40" t="s">
         <v>142</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>159</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" t="s">
-        <v>111</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+      <c r="I41" t="s">
         <v>141</v>
       </c>
-      <c r="H41" t="s">
+      <c r="J41" t="s">
         <v>142</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>149</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="4">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s">
         <v>95</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" t="s">
-        <v>111</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" t="s">
+        <v>111</v>
+      </c>
+      <c r="I42" t="s">
         <v>141</v>
       </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>142</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>156</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="4">
         <v>3</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" t="s">
-        <v>111</v>
-      </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s">
         <v>164</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>165</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>166</v>
       </c>
-      <c r="J43" t="s">
+      <c r="L43" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="4">
         <v>3</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s">
         <v>97</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" t="s">
-        <v>111</v>
-      </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
         <v>164</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>165</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>166</v>
       </c>
-      <c r="J44" t="s">
+      <c r="L44" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="4">
         <v>3</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s">
         <v>98</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F45" t="s">
-        <v>111</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="G45" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" t="s">
         <v>164</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>165</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>166</v>
       </c>
-      <c r="J45" t="s">
+      <c r="L45" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="4">
         <v>3</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s">
         <v>99</v>
       </c>
-      <c r="E46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="G46" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" t="s">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s">
         <v>164</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
         <v>165</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>166</v>
       </c>
-      <c r="J46" t="s">
+      <c r="L46" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="4">
         <v>3</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" t="s">
-        <v>111</v>
-      </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>111</v>
+      </c>
+      <c r="I47" t="s">
         <v>164</v>
       </c>
-      <c r="H47" t="s">
+      <c r="J47" t="s">
         <v>165</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>166</v>
       </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="4">
         <v>3</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I48" t="s">
         <v>164</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>165</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>166</v>
       </c>
-      <c r="J48" t="s">
+      <c r="L48" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4">
         <v>3</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s">
         <v>102</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" t="s">
-        <v>111</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="G49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>111</v>
+      </c>
+      <c r="I49" t="s">
         <v>164</v>
       </c>
-      <c r="H49" t="s">
+      <c r="J49" t="s">
         <v>165</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>166</v>
       </c>
-      <c r="J49" t="s">
+      <c r="L49" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="4">
         <v>2</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s">
         <v>103</v>
       </c>
-      <c r="E50" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s">
-        <v>111</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H50" t="s">
+        <v>111</v>
+      </c>
+      <c r="I50" t="s">
         <v>141</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>171</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>172</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4">
         <v>2</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s">
         <v>104</v>
       </c>
-      <c r="E51" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" t="s">
-        <v>111</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H51" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" t="s">
         <v>141</v>
       </c>
-      <c r="H51" t="s">
+      <c r="J51" t="s">
         <v>171</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>172</v>
       </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4">
         <v>2</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s">
         <v>105</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" t="s">
-        <v>111</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="H52" t="s">
+      <c r="J52" t="s">
         <v>171</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>172</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>174</v>
       </c>
     </row>
